--- a/Exc2/check-list.xlsx
+++ b/Exc2/check-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Пункт проверочного листа</t>
   </si>
@@ -21,6 +21,45 @@
     <t>Обоснование</t>
   </si>
   <si>
+    <t xml:space="preserve">I. Управление доступом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализован ли принцип минимальных привилегий при назначении ролей и прав доступа?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В компании много различных групп пользователей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ведётся ли журналирование всех операций доступа к системам и данным? Кто имеет доступ к журналам?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используется для расследования инцедентов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используются ли системы аутентификации пользователей для доступа к системам?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используется для предотвращения неавторизованного доступа к функциям системы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограничен ли доступ к системам из внешних источников?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используется для предотвращения чрезмерных нагрузок на систему</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Применяются ли средства для отзыва прав доступа?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используются ли средства централизованного контроля доступа?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используется для повышения безопасности системы и предотвращения неавторизованного доступа для уволеных сотрудников</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II. Безопасность данных</t>
+  </si>
+  <si>
     <t xml:space="preserve">Разработана ли политика классификации данных, и актуализируется ли она в соответствии с действующим законодательством?</t>
   </si>
   <si>
@@ -81,6 +120,9 @@
     <t xml:space="preserve">Уменьшение времени простоя системы при потере данных</t>
   </si>
   <si>
+    <t xml:space="preserve">III. Защита инфраструктуры</t>
+  </si>
+  <si>
     <t xml:space="preserve">Используется ли межсетевой экран для ограничения входящего и исходящего трафика?</t>
   </si>
   <si>
@@ -109,13 +151,52 @@
   </si>
   <si>
     <t xml:space="preserve">Используются ли средства для контроля периметра доступа?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV. Управление инцидентами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настроены ли автоматические оповещения об инцидентах и подозрительной активности (например, попытках несанкционированного доступа)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для своевременной реакции на инцедент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ведется ли статистика по всем зарегистрированным инцидентам и используются ли результаты анализа для корректировки политики безопасности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для проведения ретроспектив и повышения безопасности в будущем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как часто проводятся внутренние и внешние аудиты безопасности, и обновляются ли политики и процедуры на основе результатов этих аудитов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V. Специфические аспекты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используются ли системы контроля доступа — биометрия, СКУД — в серверных помещениях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для обеспечения безопасности оборудования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ведётся ли инвентаризация всего оборудования и контроль его состояния с использованием систем управления активами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для обеспечения сохранноти оборудования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используются ли безопасные методы удаления данных перед утилизацией оборудования или передачей его в другие подразделения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для обеспечения конфиденциальности данных</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -126,6 +207,26 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.000000"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -155,19 +256,37 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -680,179 +799,307 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="46.140625"/>
-    <col customWidth="1" min="4" max="4" style="1" width="52.00390625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="46.140625"/>
+    <col customWidth="1" min="4" max="4" style="2" width="52.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75"/>
     <row r="2" ht="26.25" customHeight="1">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="51">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" ht="26.25" customHeight="1">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="26.25" customHeight="1">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="38.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" ht="26.25" customHeight="1">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" ht="25.5">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" ht="26.25" customHeight="1">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" ht="38.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" ht="26.25" customHeight="1">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" ht="38.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" ht="28.5" customHeight="1">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" ht="63.75">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="39.75" customHeight="1">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="57.75" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+    <row r="10" ht="26.25" customHeight="1">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" ht="51">
+      <c r="B11" s="3"/>
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" ht="25.5">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" ht="38.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" ht="25.5">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="13" ht="25.5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" ht="25.5">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="14" ht="38.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" ht="12.75">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" ht="25.5">
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="15" ht="38.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" ht="38.25">
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="16" ht="63.75">
+      <c r="B16" s="3"/>
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" ht="38.25">
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5" t="s">
+    </row>
+    <row r="17" ht="57.75" customHeight="1">
+      <c r="B17" s="3"/>
+      <c r="C17" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" ht="38.25">
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" ht="38.25">
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="18" ht="25.5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5">
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="25.5">
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75"/>
-    <row r="22" ht="12.75"/>
-    <row r="23" ht="12.75"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" ht="31.5" customHeight="1">
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" ht="25.5">
+      <c r="C22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" ht="38.25">
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" ht="38.25">
+      <c r="C24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" ht="38.25">
+      <c r="C25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" ht="38.25">
+      <c r="C26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5">
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5">
+      <c r="C28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1">
+      <c r="C29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" ht="36">
+      <c r="C30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" ht="36">
+      <c r="C31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" ht="36">
+      <c r="C32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" ht="27.75" customHeight="1">
+      <c r="C33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" ht="33" customHeight="1">
+      <c r="C34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" ht="46.5" customHeight="1">
+      <c r="C35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" ht="44.25" customHeight="1">
+      <c r="C36" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C33:D33"/>
+  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
